--- a/medicine/Enfance/Théodore_Cahu/Théodore_Cahu.xlsx
+++ b/medicine/Enfance/Théodore_Cahu/Théodore_Cahu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Th%C3%A9odore_Cahu</t>
+          <t>Théodore_Cahu</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jules Nicolas Théodore Cahu, dit Théo-Critt, né à Beaugency le 5 décembre 1854 et mort le 28 octobre 1928, est un officier de cavalerie et écrivain français.
 Cahu commença ses études au petit-séminaire de la Chapelle-sur-Loire et les acheva à Paris avec un précepteur. Entré en 1873 à Saint-Cyr, il sort (avec le premier rang) diplômé de l'École de cavalerie de Saumur.Il entre au Prytanée militaire en 1877; sous-lieutenant au 6e régiment de cuirassiers (1880). La publication des premières « histoires joyeuses de la vie militaire glanées au mess ou même, dans les salons du colonel», lui attire quelques difficultés : il est affecté en 1882 à la 1re compagnie de remonte au Bec-Hellouin.
-Il fit la guerre franco-prussienne au 13e régiment de cuirassiers[Information douteuse], puis  devint chef de cabinet du général Boulanger[1]. Lieutenant en 1884, il démissionne de l'armée en 
+Il fit la guerre franco-prussienne au 13e régiment de cuirassiers[Information douteuse], puis  devint chef de cabinet du général Boulanger. Lieutenant en 1884, il démissionne de l'armée en 
 1885 pour se consacrer à l'écriture.Certains titres permirent à ses adversaires politiques de le qualifier, injustement d'ailleurs, de « pornographe ». Cf. Arch. Vincennes, 43.342. 
 Ardent boulangiste, il fut candidat en 1889 dans la 2e circonscription de Rouen puis dans différentes circonscriptions toujours sans succès mais fut maire du Bec Hellouin.
 Auteur très éclectique, il publia des livres d'humour et de souvenirs militaires sous le pseudonyme de Théo Critt, tels que Nos farces à Saumur et La Vie en culotte, des romans légers, tels que Les Loisirs d'un hussard et Celles qui se prêtent, des romans d’anticipation, tels que Perdus dans l'espace et Un héritage dans les airs, des romans patriotiques et revanchards, tels que Le Conscrit de 1870, ainsi que des livres pour enfants, essentiellement des biographies de personnages historiques, tels que Richelieu, illustré par Maurice Leloir, et Jeanne d'Arc, Bayard  et Du Guesclin, illustrés par Paul de Sémant.
@@ -501,7 +513,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Th%C3%A9odore_Cahu</t>
+          <t>Théodore_Cahu</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -519,7 +531,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
